--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Areg-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Areg-Erbb3.xlsx
@@ -531,22 +531,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4156583333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H2">
-        <v>1.246975</v>
+        <v>0.57862</v>
       </c>
       <c r="I2">
-        <v>0.2454679062486713</v>
+        <v>0.2550396805282215</v>
       </c>
       <c r="J2">
-        <v>0.2454679062486713</v>
+        <v>0.2550396805282216</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04178033333333334</v>
+        <v>0.032838</v>
       </c>
       <c r="N2">
-        <v>0.125341</v>
+        <v>0.098514</v>
       </c>
       <c r="O2">
-        <v>0.009630623139527363</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="P2">
-        <v>0.009630623139527362</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="Q2">
-        <v>0.01736634371944444</v>
+        <v>0.00633357452</v>
       </c>
       <c r="R2">
-        <v>0.156297093475</v>
+        <v>0.05700217068000001</v>
       </c>
       <c r="S2">
-        <v>0.002364008897929787</v>
+        <v>0.001822596213940926</v>
       </c>
       <c r="T2">
-        <v>0.002364008897929786</v>
+        <v>0.001822596213940927</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4156583333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H3">
-        <v>1.246975</v>
+        <v>0.57862</v>
       </c>
       <c r="I3">
-        <v>0.2454679062486713</v>
+        <v>0.2550396805282215</v>
       </c>
       <c r="J3">
-        <v>0.2454679062486713</v>
+        <v>0.2550396805282216</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.544755</v>
       </c>
       <c r="O3">
-        <v>0.04185645645377992</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="P3">
-        <v>0.04185645645377991</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="Q3">
-        <v>0.07547731845833333</v>
+        <v>0.03502290423333333</v>
       </c>
       <c r="R3">
-        <v>0.6792958661249999</v>
+        <v>0.3152061381</v>
       </c>
       <c r="S3">
-        <v>0.01027441672869804</v>
+        <v>0.01007844976881853</v>
       </c>
       <c r="T3">
-        <v>0.01027441672869804</v>
+        <v>0.01007844976881854</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4156583333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H4">
-        <v>1.246975</v>
+        <v>0.57862</v>
       </c>
       <c r="I4">
-        <v>0.2454679062486713</v>
+        <v>0.2550396805282215</v>
       </c>
       <c r="J4">
-        <v>0.2454679062486713</v>
+        <v>0.2550396805282216</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.702762666666666</v>
+        <v>3.814633</v>
       </c>
       <c r="N4">
-        <v>11.108288</v>
+        <v>11.443899</v>
       </c>
       <c r="O4">
-        <v>0.8535095096842543</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="P4">
-        <v>0.8535095096842541</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="Q4">
-        <v>1.539084158755555</v>
+        <v>0.7357409821533334</v>
       </c>
       <c r="R4">
-        <v>13.8517574288</v>
+        <v>6.621668839380001</v>
       </c>
       <c r="S4">
-        <v>0.2095091923055239</v>
+        <v>0.2117222627253218</v>
       </c>
       <c r="T4">
-        <v>0.2095091923055239</v>
+        <v>0.2117222627253218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4156583333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H5">
-        <v>1.246975</v>
+        <v>0.57862</v>
       </c>
       <c r="I5">
-        <v>0.2454679062486713</v>
+        <v>0.2550396805282215</v>
       </c>
       <c r="J5">
-        <v>0.2454679062486713</v>
+        <v>0.2550396805282216</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4121513333333333</v>
+        <v>0.5660336666666667</v>
       </c>
       <c r="N5">
-        <v>1.236454</v>
+        <v>1.698101</v>
       </c>
       <c r="O5">
-        <v>0.09500341072243851</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="P5">
-        <v>0.09500341072243849</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="Q5">
-        <v>0.1713141362944444</v>
+        <v>0.1091728000688889</v>
       </c>
       <c r="R5">
-        <v>1.54182722665</v>
+        <v>0.98255520062</v>
       </c>
       <c r="S5">
-        <v>0.02332028831651954</v>
+        <v>0.03141637182014029</v>
       </c>
       <c r="T5">
-        <v>0.02332028831651954</v>
+        <v>0.03141637182014029</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.277672333333333</v>
+        <v>0.5633750000000001</v>
       </c>
       <c r="H6">
-        <v>3.833017</v>
+        <v>1.690125</v>
       </c>
       <c r="I6">
-        <v>0.7545320937513288</v>
+        <v>0.7449603194717784</v>
       </c>
       <c r="J6">
-        <v>0.7545320937513288</v>
+        <v>0.7449603194717785</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.04178033333333334</v>
+        <v>0.032838</v>
       </c>
       <c r="N6">
-        <v>0.125341</v>
+        <v>0.098514</v>
       </c>
       <c r="O6">
-        <v>0.009630623139527363</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="P6">
-        <v>0.009630623139527362</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="Q6">
-        <v>0.05338157597744445</v>
+        <v>0.01850010825</v>
       </c>
       <c r="R6">
-        <v>0.480434183797</v>
+        <v>0.16650097425</v>
       </c>
       <c r="S6">
-        <v>0.007266614241597577</v>
+        <v>0.00532372788027878</v>
       </c>
       <c r="T6">
-        <v>0.007266614241597576</v>
+        <v>0.005323727880278782</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.277672333333333</v>
+        <v>0.5633750000000001</v>
       </c>
       <c r="H7">
-        <v>3.833017</v>
+        <v>1.690125</v>
       </c>
       <c r="I7">
-        <v>0.7545320937513288</v>
+        <v>0.7449603194717784</v>
       </c>
       <c r="J7">
-        <v>0.7545320937513288</v>
+        <v>0.7449603194717785</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.544755</v>
       </c>
       <c r="O7">
-        <v>0.04185645645377992</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="P7">
-        <v>0.04185645645377991</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="Q7">
-        <v>0.2320061306483333</v>
+        <v>0.102300449375</v>
       </c>
       <c r="R7">
-        <v>2.088055175835</v>
+        <v>0.9207040443750001</v>
       </c>
       <c r="S7">
-        <v>0.03158203972508188</v>
+        <v>0.02943873339242409</v>
       </c>
       <c r="T7">
-        <v>0.03158203972508188</v>
+        <v>0.02943873339242409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.277672333333333</v>
+        <v>0.5633750000000001</v>
       </c>
       <c r="H8">
-        <v>3.833017</v>
+        <v>1.690125</v>
       </c>
       <c r="I8">
-        <v>0.7545320937513288</v>
+        <v>0.7449603194717784</v>
       </c>
       <c r="J8">
-        <v>0.7545320937513288</v>
+        <v>0.7449603194717785</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.702762666666666</v>
+        <v>3.814633</v>
       </c>
       <c r="N8">
-        <v>11.108288</v>
+        <v>11.443899</v>
       </c>
       <c r="O8">
-        <v>0.8535095096842543</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="P8">
-        <v>0.8535095096842541</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="Q8">
-        <v>4.730917416099555</v>
+        <v>2.149068866375</v>
       </c>
       <c r="R8">
-        <v>42.578256744896</v>
+        <v>19.341619797375</v>
       </c>
       <c r="S8">
-        <v>0.6440003173787304</v>
+        <v>0.6184319402866035</v>
       </c>
       <c r="T8">
-        <v>0.6440003173787303</v>
+        <v>0.6184319402866036</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.277672333333333</v>
+        <v>0.5633750000000001</v>
       </c>
       <c r="H9">
-        <v>3.833017</v>
+        <v>1.690125</v>
       </c>
       <c r="I9">
-        <v>0.7545320937513288</v>
+        <v>0.7449603194717784</v>
       </c>
       <c r="J9">
-        <v>0.7545320937513288</v>
+        <v>0.7449603194717785</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4121513333333333</v>
+        <v>0.5660336666666667</v>
       </c>
       <c r="N9">
-        <v>1.236454</v>
+        <v>1.698101</v>
       </c>
       <c r="O9">
-        <v>0.09500341072243851</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="P9">
-        <v>0.09500341072243849</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="Q9">
-        <v>0.5265943557464444</v>
+        <v>0.3188892169583334</v>
       </c>
       <c r="R9">
-        <v>4.739349201717999</v>
+        <v>2.870002952625</v>
       </c>
       <c r="S9">
-        <v>0.07168312240591897</v>
+        <v>0.0917659179124721</v>
       </c>
       <c r="T9">
-        <v>0.07168312240591895</v>
+        <v>0.09176591791247211</v>
       </c>
     </row>
   </sheetData>
